--- a/注文管理画面/01.注文管理.xlsx
+++ b/注文管理画面/01.注文管理.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t xml:space="preserve">製品一覧画面</t>
   </si>
@@ -122,7 +122,10 @@
     <t xml:space="preserve">1-3.取得した注文テーブルデータが0件の場合</t>
   </si>
   <si>
-    <t xml:space="preserve">注文がありませんと表示させる。</t>
+    <t xml:space="preserve">メッセージを表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「注文がありません」</t>
   </si>
   <si>
     <t xml:space="preserve">2. 戻るボタンをタッチ</t>
@@ -584,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -600,7 +603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="929880" y="687600"/>
-          <a:ext cx="2699640" cy="5240160"/>
+          <a:ext cx="2699280" cy="5239800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3508,8 +3511,8 @@
   </sheetPr>
   <dimension ref="A1:AY53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC32" activeCellId="0" sqref="AC32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4325,7 +4328,9 @@
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
-      <c r="AN15" s="27"/>
+      <c r="AN15" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="AO15" s="28"/>
       <c r="AP15" s="28"/>
       <c r="AQ15" s="28"/>
@@ -4394,7 +4399,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27"/>
       <c r="B17" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -4450,7 +4455,7 @@
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -4557,7 +4562,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27"/>
       <c r="B20" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -4613,7 +4618,7 @@
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4725,7 +4730,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -4833,7 +4838,7 @@
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -4888,7 +4893,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -4943,7 +4948,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="0"/>
       <c r="E27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -5050,7 +5055,7 @@
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="D29" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -5106,7 +5111,7 @@
       <c r="C30" s="0"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -5115,7 +5120,7 @@
       <c r="J30" s="30"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -5163,18 +5168,18 @@
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" s="28"/>
       <c r="L31" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -5182,11 +5187,11 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S31" s="28"/>
       <c r="T31" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U31" s="28"/>
       <c r="V31" s="28"/>
@@ -5279,7 +5284,7 @@
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -5387,7 +5392,7 @@
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
